--- a/code-output_checklist.xlsx
+++ b/code-output_checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am2685\Desktop\SalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abmos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8005000C-99E6-4006-A228-6E2A10548306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1279C71-651A-459A-8251-D9827782761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Figure/Table #</t>
   </si>
   <si>
     <t>In-text numbers</t>
-  </si>
-  <si>
-    <t>Replicated?</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Program Name</t>
@@ -182,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -328,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,11 +472,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -490,367 +482,303 @@
     <col min="2" max="2" width="37.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.81640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="51.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>160</v>
       </c>
       <c r="B9" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>27.26</v>
       </c>
       <c r="B10" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>173</v>
       </c>
       <c r="B11" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>29.32</v>
       </c>
       <c r="B12" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>79</v>
       </c>
       <c r="B13" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13.46</v>
       </c>
       <c r="B14" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>51</v>
       </c>
       <c r="B15" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>8.64</v>
       </c>
       <c r="B16" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>29</v>
       </c>
       <c r="B17" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>4.9400000000000004</v>
       </c>
       <c r="B18" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>39</v>
       </c>
       <c r="B19" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>6.61</v>
       </c>
       <c r="B20" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>92.41</v>
       </c>
       <c r="B21" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>88.23</v>
       </c>
       <c r="B22" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>11.22</v>
       </c>
@@ -861,13 +789,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>11.13</v>
       </c>
@@ -878,10 +803,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
